--- a/Metrics/Qualis/WebQualis_Compilada_2021.xlsx
+++ b/Metrics/Qualis/WebQualis_Compilada_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C198"/>
+  <dimension ref="A1:C530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,12 +377,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2152-5250</t>
+          <t>1568-1637</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AGING AND DISEASE</t>
+          <t>AGEING RESEARCH REVIEWS (PRINT)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -394,12 +394,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0167-4943</t>
+          <t>2152-5250</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ARCHIVES OF GERONTOLOGY AND GERIATRICS</t>
+          <t>AGING AND DISEASE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -411,12 +411,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1746-8094</t>
+          <t>0363-5465</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIOMEDICAL SIGNAL PROCESSING AND CONTROL (PRINT)</t>
+          <t>AMERICAN JOURNAL OF SPORTS MEDICINE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -428,12 +428,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1678-4464</t>
+          <t>1877-0657</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CADERNOS DE SAÚDE PÚBLICA</t>
+          <t>ANNALS OF PHYSICAL AND REHABILITATION MEDICINE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -445,12 +445,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1678-4561</t>
+          <t>0003-6870</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CIÊNCIA &amp; SAÚDE COLETIVA</t>
+          <t>APPLIED ERGONOMICS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -462,12 +462,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0269-2155</t>
+          <t>0167-4943</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CLINICAL REHABILITATION</t>
+          <t>ARCHIVES OF GERONTOLOGY AND GERIATRICS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -479,12 +479,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0963-8288</t>
+          <t>0003-9993</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DISABILITY AND REHABILITATION</t>
+          <t>ARCHIVES OF PHYSICAL MEDICINE AND REHABILITATION (PRINT)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -496,12 +496,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0954-3007</t>
+          <t>0269-2821</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EUROPEAN JOURNAL OF CLINICAL NUTRITION</t>
+          <t>ARTIFICIAL INTELLIGENCE REVIEW</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -513,12 +513,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1090-3801</t>
+          <t>1746-8094</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EUROPEAN JOURNAL OF PAIN</t>
+          <t>BIOMEDICAL SIGNAL PROCESSING AND CONTROL (PRINT)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -530,12 +530,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0940-6719</t>
+          <t>1472-6963</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EUROPEAN SPINE JOURNAL</t>
+          <t>BMC HEALTH SERVICES RESEARCH (ONLINE)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -547,12 +547,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0891-5849</t>
+          <t>1471-2431</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FREE RADICAL BIOLOGY &amp; MEDICINE</t>
+          <t>BMC PEDIATRICS (ONLINE)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -564,12 +564,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1178-2005</t>
+          <t>1471-2458</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>INTERNATIONAL JOURNAL OF COPD</t>
+          <t>BMC PUBLIC HEALTH (ONLINE)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -581,12 +581,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1555-0265</t>
+          <t>1472-6874</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>INTERNATIONAL JOURNAL OF SPORTS PHYSIOLOGY AND PERFORMANCE</t>
+          <t>BMC WOMEN'S HEALTH (ONLINE)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -598,12 +598,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2374-2445</t>
+          <t>2044-6055</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>JAMA ONCOLOGY (ONLINE)</t>
+          <t>BMJ OPEN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -615,12 +615,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0021-9290</t>
+          <t>1935-861X</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>JOURNAL OF BIOMECHANICS</t>
+          <t>BRAIN STIMULATION: BASIC, TRANSLATIONAL AND CLINICAL RESEARCH IN NEUROMODULATION</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -632,12 +632,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1367-4935</t>
+          <t>1863-2653</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>JOURNAL OF CHILD HEALTH CARE</t>
+          <t>BRAIN STRUCTURE &amp; FUNCTION (PRINT)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -649,12 +649,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1556-3707</t>
+          <t>0306-3674</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>JOURNAL OF CHIROPRACTIC MEDICINE (PRINT)</t>
+          <t>BRITISH JOURNAL OF SPORTS MEDICINE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -666,12 +666,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0022-0949</t>
+          <t>1678-4464</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>JOURNAL OF EXPERIMENTAL BIOLOGY</t>
+          <t>CADERNOS DE SAÚDE PÚBLICA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -683,12 +683,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1359-1053</t>
+          <t>0742-0528</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>JOURNAL OF HEALTH PSYCHOLOGY</t>
+          <t>CHRONOBIOLOGY INTERNATIONAL</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -700,12 +700,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1011-1344</t>
+          <t>1678-4561</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>JOURNAL OF PHOTOCHEMISTRY AND PHOTOBIOLOGY. B, BIOLOGY</t>
+          <t>CIÊNCIA &amp; SAÚDE COLETIVA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -717,12 +717,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0022-3751</t>
+          <t>1413-8123</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>JOURNAL OF PHYSIOLOGY (LONDON. PRINT)</t>
+          <t>CIÊNCIA E SAÚDE COLETIVA (IMPRESSO)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -734,12 +734,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1836-9553</t>
+          <t>1054-7738</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>JOURNAL OF PHYSIOTHERAPY</t>
+          <t>CLINICAL NURSING RESEARCH</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -751,12 +751,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2095-2546</t>
+          <t>0269-2155</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>JOURNAL OF SPORT AND HEALTH SCIENCE</t>
+          <t>CLINICAL REHABILITATION</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -768,12 +768,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0264-0414</t>
+          <t>0143-5221</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>JOURNAL OF SPORTS SCIENCES (PRINT)</t>
+          <t>CLINICAL SCIENCE (1979)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -785,12 +785,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0965-206X</t>
+          <t>1469-493X</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>JOURNAL OF TISSUE VIABILITY</t>
+          <t>COCHRANE DATABASE OF SYSTEMATIC REVIEWS (ONLINE)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -802,12 +802,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0140-6736</t>
+          <t>0012-1622</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LANCET (BRITISH EDITION)</t>
+          <t>DEVELOPMENTAL MEDICINE AND CHILD NEUROLOGY (PRINT)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -819,12 +819,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1474-4422</t>
+          <t>0963-8288</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LANCET NEUROLOGY (PRINT)</t>
+          <t>DISABILITY AND REHABILITATION</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -836,12 +836,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0196-8092</t>
+          <t>1676-2592</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>LASERS IN SURGERY AND MEDICINE (PRINT)</t>
+          <t>EDUCAÇÃO TEMÁTICA DIGITAL</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -853,12 +853,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1053-8119</t>
+          <t>0954-3007</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NEUROIMAGE (ORLANDO, FLA. PRINT)</t>
+          <t>EUROPEAN JOURNAL OF CLINICAL NUTRITION</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -870,12 +870,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2072-6643</t>
+          <t>1090-3801</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NUTRIENTS (BASEL)</t>
+          <t>EUROPEAN JOURNAL OF PAIN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -887,12 +887,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0031-9023</t>
+          <t>1746-1391</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PHYSICAL THERAPY</t>
+          <t>EUROPEAN JOURNAL OF SPORT SCIENCE (PRINT)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -904,12 +904,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0031-9406</t>
+          <t>0940-6719</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PHYSIOTHERAPY</t>
+          <t>EUROPEAN SPINE JOURNAL</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -921,12 +921,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1932-6203</t>
+          <t>0149-7189</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PLOS ONE</t>
+          <t>EVALUATION AND PROGRAM PLANNING</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -938,12 +938,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0091-7435</t>
+          <t>0891-5849</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PREVENTIVE MEDICINE (1972. PRINT)</t>
+          <t>FREE RADICAL BIOLOGY &amp; MEDICINE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -955,12 +955,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1518-8787</t>
+          <t>2161-783X</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>REVISTA DE SAÚDE PÚBLICA (ONLINE)</t>
+          <t>GAMES FOR HEALTH JOURNAL</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -972,12 +972,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0905-7188</t>
+          <t>1444-1586</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SCANDINAVIAN JOURNAL OF MEDICINE &amp; SCIENCE IN SPORTS</t>
+          <t>GERIATRICS AND GERONTOLOGY INTERNATIONAL</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -989,12 +989,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1600-0838</t>
+          <t>1355-6037</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SCANDINAVIAN JOURNAL OF MEDICINE &amp; SCIENCE IN SPORTS</t>
+          <t>HEART (LONDON. 1996)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1006,12 +1006,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2045-2322</t>
+          <t>2210-7703</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SCIENTIFIC REPORTS</t>
+          <t>INTERNATIONAL JOURNAL OF CLINICAL PHARMACY</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1023,12 +1023,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0362-2436</t>
+          <t>1178-2005</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SPINE (PHILADELPHIA, PA. 1976)</t>
+          <t>INTERNATIONAL JOURNAL OF COPD</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1040,12 +1040,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0190-6011</t>
+          <t>1660-4601</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>THE JOURNAL OF ORTHOPAEDIC AND SPORTS PHYSICAL THERAPY</t>
+          <t>INTERNATIONAL JOURNAL OF ENVIRONMENTAL RESEARCH AND PUBLIC HEALTH</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1057,2667 +1057,8311 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0954-0121</t>
+          <t>1555-0265</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AIDS CARE (PRINT)</t>
+          <t>INTERNATIONAL JOURNAL OF SPORTS PHYSIOLOGY AND PERFORMANCE</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1413-3555</t>
+          <t>1179-1411</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BRAZILIAN JOURNAL OF PHYSICAL THERAPY (PRINT)</t>
+          <t>INTERNATIONAL JOURNAL OF WOMEN'S HEALTH</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1973-9087</t>
+          <t>1864-063X</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>EUROPEAN JOURNAL OF PHYSICAL AND REHABILITATION MEDICINE (TESTO STAMPATO)</t>
+          <t>J BIOPHOTONICS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1662-5161</t>
+          <t>0098-7484</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FRONTIERS IN HUMAN NEUROSCIENCE</t>
+          <t>JAMA (CHICAGO, ILL.)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1664-042X</t>
+          <t>2374-2445</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FRONTIERS IN PHYSIOLOGY</t>
+          <t>JAMA ONCOLOGY (ONLINE)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0966-6362</t>
+          <t>1438-8871</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GAIT &amp; POSTURE</t>
+          <t>JMIR. JOURNAL OF MEDICAL INTERNET RESEARCH</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1477-7525</t>
+          <t>0165-0327</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>HEALTH AND QUALITY OF LIFE OUTCOMES</t>
+          <t>JOURNAL OF AFFECTIVE DISORDERS (PRINT)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0172-4622</t>
+          <t>0021-9290</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>INTERNATIONAL JOURNAL OF SPORTS MEDICINE</t>
+          <t>JOURNAL OF BIOMECHANICS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1360-8592</t>
+          <t>1367-4935</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>JOURNAL OF BODYWORK AND MOVEMENT THERAPIES</t>
+          <t>JOURNAL OF CHILD HEALTH CARE</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0161-4754</t>
+          <t>1556-3707</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>JOURNAL OF MANIPULATIVE AND PHYSIOLOGICAL THERAPEUTICS</t>
+          <t>JOURNAL OF CHIROPRACTIC MEDICINE (PRINT)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2048-6790</t>
+          <t>1873-9946</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>JOURNAL OF NUTRITIONAL SCIENCE</t>
+          <t>JOURNAL OF CROHN'S AND COLITIS (PRINT)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0268-8921</t>
+          <t>0022-0949</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>LASERS IN MEDICAL SCIENCE</t>
+          <t>JOURNAL OF EXPERIMENTAL BIOLOGY</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1435-604X</t>
+          <t>1539-8412</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>LASERS IN MEDICAL SCIENCE (INTERNET)</t>
+          <t>JOURNAL OF GERIATRIC PHYSICAL THERAPY</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0885-1158</t>
+          <t>1359-1053</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MEDICAL PROBLEMS OF PERFORMING ARTISTS</t>
+          <t>JOURNAL OF HEALTH PSYCHOLOGY</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1096-7192</t>
+          <t>1743-0003</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MOLECULAR GENETICS AND METABOLISM (PRINT)</t>
+          <t>JOURNAL OF NEUROENGINEERING AND REHABILITATION</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2468-7812</t>
+          <t>0885-3924</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MUSCULOSKELETAL SCIENCE AND PRACTICE</t>
+          <t>JOURNAL OF PAIN AND SYMPTOM MANAGEMENT</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2213-1582</t>
+          <t>1011-1344</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NEUROIMAGE: CLINICAL</t>
+          <t>JOURNAL OF PHOTOCHEMISTRY AND PHOTOBIOLOGY. B, BIOLOGY</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0733-2467</t>
+          <t>0022-3751</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NEUROUROLOGY AND URODYNAMICS (PRINT)</t>
+          <t>JOURNAL OF PHYSIOLOGY (LONDON. PRINT)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1533-3159</t>
+          <t>1836-9553</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PAIN PHYSICIAN</t>
+          <t>JOURNAL OF PHYSIOTHERAPY</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1530-7085</t>
+          <t>1440-2440</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PAIN PRACTICE (PRINT)</t>
+          <t>JOURNAL OF SCIENCE AND MEDICINE IN SPORT</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1557-8550</t>
+          <t>2095-2546</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PHOTOMEDICINE AND LASER SURGERY (ONLINE)</t>
+          <t>JOURNAL OF SPORT AND HEALTH SCIENCE</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0031-9384</t>
+          <t>0264-0414</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PHYSIOLOGY &amp; BEHAVIOR</t>
+          <t>JOURNAL OF SPORTS SCIENCES (PRINT)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1064-8011</t>
+          <t>0965-206X</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>THE JOURNAL OF STRENGTH AND CONDITIONING RESEARCH</t>
+          <t>JOURNAL OF TISSUE VIABILITY</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1529-9430</t>
+          <t>0140-6736</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>THE SPINE JOURNAL</t>
+          <t>LANCET (BRITISH EDITION)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1720-8319</t>
+          <t>1474-4422</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>AGING CLINICAL AND EXPERIMENTAL RESEARCH</t>
+          <t>LANCET NEUROLOGY (PRINT)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1715-5312</t>
+          <t>0196-8092</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>APPLIED PHYSIOLOGY, NUTRITION AND METABOLISM (PRINT)</t>
+          <t>LASERS IN SURGERY AND MEDICINE (PRINT)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1414-431X</t>
+          <t>0024-3205</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BRAZILIAN JOURNAL OF MEDICAL AND BIOLOGICAL RESEARCH</t>
+          <t>LIFE SCIENCES (1973)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0100-879X</t>
+          <t>0378-5122</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BRAZILIAN JOURNAL OF MEDICAL AND BIOLOGICAL RESEARCH (IMPRESSO)</t>
+          <t>MATURITAS (AMSTERDAM)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0268-0033</t>
+          <t>0195-9131</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CLINICAL BIOMECHANICS (BRISTOL)</t>
+          <t>MEDICINE AND SCIENCE IN SPORTS AND EXERCISE</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1744-3881</t>
+          <t>1743-5889</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>COMPLEMENTARY THERAPIES IN CLINICAL PRACTICE</t>
+          <t>NANOMEDICINE</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1541-2555</t>
+          <t>1053-8119</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>COPD (MONTICELLO. SULLIVAN COUNTY)</t>
+          <t>NEUROIMAGE (ORLANDO, FLA. PRINT)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1389-4501</t>
+          <t>2072-6643</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CURRENT DRUG TARGETS (PRINT)</t>
+          <t>NUTRIENTS (BASEL)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1679-4974</t>
+          <t>0960-8923</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>EPIDEMIOLOGIA E SERVICOS DE SAUDE</t>
+          <t>OBESITY SURGERY</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1747-6348</t>
+          <t>1351-0711</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>EXPERT REVIEW OF RESPIRATORY MEDICINE</t>
+          <t>OCCUPATIONAL AND ENVIRONMENTAL MEDICINE (LONDON)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1662-453X</t>
+          <t>1353-8020</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>FRONTIERS IN NEUROSCIENCE</t>
+          <t>PARKINSONISM &amp; RELATED DISORDERS</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0147-9563</t>
+          <t>0738-3991</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>HEART &amp; LUNG</t>
+          <t>PATIENT EDUCATION AND COUNSELING</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1109-9666</t>
+          <t>0031-9023</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>HELLENIC JOURNAL OF CARDIOLOGY</t>
+          <t>PHYSICAL THERAPY</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1520-4391</t>
+          <t>0031-9406</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>HEMATOLOGY (PRINT)</t>
+          <t>PHYSIOTHERAPY</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0167-9457</t>
+          <t>1932-6203</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>HUMAN MOVEMENT SCIENCE (PRINT)</t>
+          <t>PLOS ONE</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1063-8652</t>
+          <t>0091-7435</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>JOURNAL OF AGING AND PHYSICAL ACTIVITY</t>
+          <t>PREVENTIVE MEDICINE (1972. PRINT)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1089-313X</t>
+          <t>1518-8787</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>JOURNAL OF DANCE MEDICINE &amp; SCIENCE</t>
+          <t>REVISTA DE SAÚDE PÚBLICA (ONLINE)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1899-7562</t>
+          <t>0871-9187</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>JOURNAL OF HUMAN KINETICS</t>
+          <t>REVISTA PORTUGUESA DE EDUCAÇÃO</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2228-6721</t>
+          <t>2158-2440</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>JOURNAL OF LASERS IN MEDICAL SCIENCES</t>
+          <t>SAGE OPEN</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0364-3190</t>
+          <t>0905-7188</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NEUROCHEMICAL RESEARCH</t>
+          <t>SCANDINAVIAN JOURNAL OF MEDICINE &amp; SCIENCE IN SPORTS</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1053-8135</t>
+          <t>1600-0838</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NEUROREHABILITATION (READING, MA)</t>
+          <t>SCANDINAVIAN JOURNAL OF MEDICINE &amp; SCIENCE IN SPORTS</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1934-1482</t>
+          <t>2045-2322</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PM &amp; R (PHILADELPHIA, 2009): THE JOURNAL OF INJURY, FUNCTION AND REHABILITATION</t>
+          <t>SCIENTIFIC REPORTS</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2090-2867</t>
+          <t>1362-4393</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>REHABILITATION RESEARCH AND PRACTICE</t>
+          <t>SPINAL CORD</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0270-1367</t>
+          <t>0362-2436</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>RESEARCH QUARTERLY FOR EXERCISE AND SPORT</t>
+          <t>SPINE (PHILADELPHIA, PA. 1976)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0020-1324</t>
+          <t>0039-2499</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>RESPIRATORY CARE</t>
+          <t>STROKE (DALLAS. 1970)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1980-5497</t>
+          <t>0892-6638</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>REVISTA BRASILEIRA DE EPIDEMIOLOGIA</t>
+          <t>THE FASEB JOURNAL</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1806-0013</t>
+          <t>2273-4309</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>REVISTA DOR</t>
+          <t>THE JOURNAL OF FRAILTY &amp; AGING</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1476-3141</t>
+          <t>0190-6011</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SPORTS BIOMECHANICS</t>
+          <t>THE JOURNAL OF ORTHOPAEDIC AND SPORTS PHYSICAL THERAPY</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0104-0707</t>
+          <t>1526-5900</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TEXTO &amp; CONTEXTO ENFERMAGEM</t>
+          <t>THE JOURNAL OF PAIN (PRINT)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1524-6175</t>
+          <t>1360-2276</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>THE JOURNAL OF CLINICAL HYPERTENSION (GREENWICH, CONN.)</t>
+          <t>TM &amp; IH. TROPICAL MEDICINE AND INTERNATIONAL HEALTH (PRINT)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1355-008X</t>
+          <t>1074-9357</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ENDOCRINE (BASINGSTOKE)</t>
+          <t>TOPICS IN STROKE REHABILITATION</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1664-2295</t>
+          <t>0001-706X</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>FRONTIERS IN NEUROLOGY</t>
+          <t>ACTA TROPICA</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2005-2901</t>
+          <t>0954-0121</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>JOURNAL OF ACUPUNCTURE AND MERIDIAN STUDIES</t>
+          <t>AIDS CARE (PRINT)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1053-8127</t>
+          <t>0894-9115</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>JOURNAL OF BACK AND MUSCULOSKELETAL REHABILITATION</t>
+          <t>AMERICAN JOURNAL OF PHYSICAL MEDICINE &amp; REHABILITATION</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1050-6411</t>
+          <t>0001-3765</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>JOURNAL OF ELECTROMYOGRAPHY AND KINESIOLOGY</t>
+          <t>ANAIS DA ACADEMIA BRASILEIRA DE CIÊNCIAS (IMPRESSO)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>0022-4707</t>
+          <t>1432-0711</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>JOURNAL OF SPORTS MEDICINE AND PHYSICAL FITNESS (TESTO STAMPATO)</t>
+          <t>ARCHIVES OF GYNECOLOGY AND OBSTETRICS (ON LINE)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1331-1441</t>
+          <t>0860-021X</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>KINESIOLOGY (ZAGREB)</t>
+          <t>BIOLOGY OF SPORT</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>0375-9393</t>
+          <t>0753-3322</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MINERVA ANESTESIOLOGICA (TESTO STAMPATO)</t>
+          <t>BIOMEDICINE &amp; PHARMACOTHERAPY</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>0959-3985</t>
+          <t>1359-5237</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>PHYSIOTHERAPY THEORY AND PRACTICE</t>
+          <t>BLOOD PRESSURE MONITORING</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1569-9048</t>
+          <t>0006-8993</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>RESPIRATORY PHYSIOLOGY &amp; NEUROBIOLOGY</t>
+          <t>BRAIN RESEARCH</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>1524-1602</t>
+          <t>1809-9246</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>STRENGTH AND CONDITIONING JOURNAL</t>
+          <t>BRAZILIAN JOURNAL OF PHYSICAL THERAPY (ONLINE)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2046-4053</t>
+          <t>1413-3555</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SYSTEMATIC REVIEWS</t>
+          <t>BRAZILIAN JOURNAL OF PHYSICAL THERAPY (PRINT)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1827-1928</t>
+          <t>1178-1998</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>THE JOURNAL OF SPORTS MEDICINE AND PHYSICAL FITNESS</t>
+          <t>CLINICAL INTERVENTIONS IN AGING (ONLINE)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2318-4965</t>
+          <t>1388-2457</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ABCS HEALTH SCIENCES</t>
+          <t>CLINICAL NEUROPHYSIOLOGY</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2357-8114</t>
+          <t>0965-2299</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ABCS HEALTH SCIENCES</t>
+          <t>COMPLEMENTARY THERAPIES IN MEDICINE</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>1807-1325</t>
+          <t>1439-6319</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ARQUIVOS DE CIÊNCIAS DA SAÚDE (FAMERP)</t>
+          <t>EUROPEAN JOURNAL OF APPLIED PHYSIOLOGY (PRINT)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2008-000X</t>
+          <t>1973-9087</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ASIAN JOURNAL OF SPORTS MEDICINE</t>
+          <t>EUROPEAN JOURNAL OF PHYSICAL AND REHABILITATION MEDICINE (TESTO STAMPATO)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2080-2234</t>
+          <t>2296-634X</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>BIOMEDICAL HUMAN KINETICS</t>
+          <t>FRONTIERS IN CELL AND DEVELOPMENTAL BIOLOGY</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2595-3192</t>
+          <t>1662-5161</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>BRJP -  BRAZILIAN JOURNAL OF PAIN</t>
+          <t>FRONTIERS IN HUMAN NEUROSCIENCE</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2595-0118</t>
+          <t>1664-042X</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>BRJP (IMPRESSO)</t>
+          <t>FRONTIERS IN PHYSIOLOGY</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2358-291X</t>
+          <t>0966-6362</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>CADERNOS SAÚDE COLETIVA</t>
+          <t>GAIT &amp; POSTURE</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>1414-462X</t>
+          <t>0163-8343</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CADERNOS SAÚDE COLETIVA (UFRJ)</t>
+          <t>GENERAL HOSPITAL PSYCHIATRY</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>1205-9838</t>
+          <t>1477-7525</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CANADIAN JOURNAL OF RESPIRATORY THERAPY</t>
+          <t>HEALTH AND QUALITY OF LIFE OUTCOMES</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1578-8423</t>
+          <t>1382-4147</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CUADERNOS DE PSICOLOGIA DEL DEPORTE</t>
+          <t>HEART FAILURE REVIEWS</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>8755-1039</t>
+          <t>1070-9932</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>DIAGNOSTIC CYTOPATHOLOGY (PRINT)</t>
+          <t>IEEE ROBOTICS &amp; AUTOMATION MAGAZINE</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2167-9177</t>
+          <t>1178-7104</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>EUROPEAN JOURNAL OF PHYSIOTHERAPY (ONLINE)</t>
+          <t>INTEGRATED BLOOD PRESSURE CONTROL</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>0014-4819</t>
+          <t>1661-8564</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>EXPERIMENTAL BRAIN RESEARCH</t>
+          <t>INTERNATIONAL JOURNAL OF PUBLIC HEALTH (ONLINE)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>1807-0221</t>
+          <t>0172-4622</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>EXTENSIO: REVISTA ELETRÔNICA DE EXTENSÃO</t>
+          <t>INTERNATIONAL JOURNAL OF SPORTS MEDICINE</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2316-9117</t>
+          <t>0898-2643</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>FISIOTERAPIA E PESQUISA</t>
+          <t>JOURNAL OF AGING AND HEALTH</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>0103-5150</t>
+          <t>1062-6050</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>FISIOTERAPIA EM MOVIMENTO</t>
+          <t>JOURNAL OF ATHLETIC TRAINING</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>1980-5918</t>
+          <t>1360-8592</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>FISIOTERAPIA EM MOVIMENTO</t>
+          <t>JOURNAL OF BODYWORK AND MOVEMENT THERAPIES</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>1899-1955</t>
+          <t>1071-9164</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>HUMAN MOVEMENT (ONLINE)</t>
+          <t>JOURNAL OF CARDIAC FAILURE</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>0020-7454</t>
+          <t>2095-4964</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>INTERNATIONAL JOURNAL OF NEUROSCIENCE</t>
+          <t>JOURNAL OF INTEGRATIVE MEDICINE</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>1741-1645</t>
+          <t>2052-0492</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>INTERNATIONAL JOURNAL OF THERAPY AND REHABILITATION</t>
+          <t>JOURNAL OF INTENSIVE CARE</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1759-779X</t>
+          <t>0161-4754</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>INTERNATIONAL JOURNAL OF THERAPY AND REHABILITATION</t>
+          <t>JOURNAL OF MANIPULATIVE AND PHYSIOLOGICAL THERAPEUTICS</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>0959-3020</t>
+          <t>2048-6790</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ISOKINETICS AND EXERCISE SCIENCE</t>
+          <t>JOURNAL OF NUTRITIONAL SCIENCE</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>1806-3756</t>
+          <t>1442-7591</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>JORNAL BRASILEIRO DE PNEUMOLOGIA (ONLINE)</t>
+          <t>JOURNAL OF OCCUPATIONAL SCIENCE</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2288-1778</t>
+          <t>0305-182X</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>JOURNAL OF EXERCISE REHABILITATION</t>
+          <t>JOURNAL OF ORAL REHABILITATION (PRINT)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2411-5142</t>
+          <t>1543-3080</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>JOURNAL OF FUNCTIONAL MORPHOLOGY AND KINESIOLOGY</t>
+          <t>JOURNAL OF PHYSICAL ACTIVITY &amp; HEALTH</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2448-2455</t>
+          <t>1650-1977</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>JOURNAL OF PHYSICAL EDUCATION (ONLINE)</t>
+          <t>JOURNAL OF REHABILITATION MEDICINE (PRINT)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>1646-107X</t>
+          <t>1051-2276</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MOTRICIDADE (SANTA MARIA DA FEIRA)</t>
+          <t>JOURNAL OF RENAL NUTRITION (PRINT)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1980-6574</t>
+          <t>1303-2968</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MOTRIZ : REVISTA DE EDUCAÇÃO FÍSICA (ONLINE)</t>
+          <t>JOURNAL OF SPORTS SCIENCE AND MEDICINE</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>0031-5125</t>
+          <t>1533-4287</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PERCEPTUAL AND MOTOR SKILLS</t>
+          <t>JOURNAL OF STRENGTH AND CONDITIONING RESEARCH</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>0862-8408</t>
+          <t>2047-9980</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>PHYSIOLOGICAL RESEARCH (PRINT)</t>
+          <t>JOURNAL OF THE AMERICAN HEART ASSOCIATION</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2083-8204</t>
+          <t>0892-1997</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>PHYSIOTHERAPY (WARSAW)</t>
+          <t>JOURNAL OF VOICE</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1888-7546</t>
+          <t>0268-8921</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>REVISTA ANDALUZA DE MEDICINA DEL DEPORTE</t>
+          <t>LASERS IN MEDICAL SCIENCE</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1415-8426</t>
+          <t>1435-604X</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>REVISTA BRASILEIRA DE CINEANTROPOMETRIA &amp; DESEMPENHO HUMANO (IMPRESSO)</t>
+          <t>LASERS IN MEDICAL SCIENCE (INTERNET)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1980-0037</t>
+          <t>0885-1158</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>REVISTA BRASILEIRA DE CINEANTROPOMETRIA E DESEMPENHO HUMANO</t>
+          <t>MEDICAL PROBLEMS OF PERFORMING ARTISTS</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>1809-452X</t>
+          <t>1072-3714</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>REVISTA BRASILEIRA DE PSIQUIATRIA</t>
+          <t>MENOPAUSE (NEW YORK, N.Y.)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>0103-507X</t>
+          <t>0303-7207</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>REVISTA BRASILEIRA DE TERAPIA INTENSIVA (IMPRESSO)</t>
+          <t>MOLECULAR AND CELLULAR ENDOCRINOLOGY (PRINT)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1809-2950</t>
+          <t>1096-7192</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>REVISTA FISIOTERAPIA E PESQUISA</t>
+          <t>MOLECULAR GENETICS AND METABOLISM (PRINT)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2236-5834</t>
+          <t>2468-7812</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>REVISTA SAÚDE (SANTA MARIA)</t>
+          <t>MUSCULOSKELETAL SCIENCE AND PRACTICE</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1825-1234</t>
+          <t>2213-1582</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SPORT SCIENCES FOR HEALTH</t>
+          <t>NEUROIMAGE: CLINICAL</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1066-9817</t>
+          <t>0733-2467</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>THE JOURNAL OF MANUAL &amp; MANIPULATIVE THERAPY</t>
+          <t>NEUROUROLOGY AND URODYNAMICS (PRINT)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>0882-7524</t>
+          <t>1942-0900</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TOPICS IN GERIATRIC REHABILITATION</t>
+          <t>OXIDATIVE MEDICINE AND CELLULAR LONGEVITY</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2317-0190</t>
+          <t>1526-2375</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ACTA FISIÁTRICA</t>
+          <t>PAIN MEDICINE (MALDEN, MASS.)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1679-9291</t>
+          <t>1533-3159</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ACTA SCIENTIARUM. HEALTH SCIENCES (IMPRESSO)</t>
+          <t>PAIN PHYSICIAN</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>1807-8648</t>
+          <t>1530-7085</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ACTA SCIENTIARUM. HEALTH SCIENCES (ONLINE)</t>
+          <t>PAIN PRACTICE (PRINT)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2177-5281</t>
+          <t>8755-6863</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ADOLESCÊNCIA &amp; SAÚDE</t>
+          <t>PEDIATRIC PULMONOLOGY</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2164-6627</t>
+          <t>2167-8359</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ADVANCED SCIENCE, ENGINEERING AND MEDICINE</t>
+          <t>PEERJ</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2359-3997</t>
+          <t>0031-8655</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ARCHIVES OF ENDOCRINOLOGY AND METABOLISM</t>
+          <t>PHOTOCHEMISTRY AND PHOTOBIOLOGY</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2359-4292</t>
+          <t>1557-8550</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ARCHIVES OF ENDOCRINOLOGY AND METABOLISM</t>
+          <t>PHOTOMEDICINE AND LASER SURGERY (ONLINE)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>0212-8799</t>
+          <t>0194-2638</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ARCHIVOS DE MEDICINA DEL DEPORTE</t>
+          <t>PHYSICAL &amp; OCCUPATIONAL THERAPY IN PEDIATRICS</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>1678-4170</t>
+          <t>0031-9384</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ARQUIVOS BRASILEIROS DE CARDIOLOGIA</t>
+          <t>PHYSIOLOGY &amp; BEHAVIOR</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>1678-4227</t>
+          <t>0962-9343</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ARQUIVOS DE NEURO-PSIQUIATRIA</t>
+          <t>QUALITY OF LIFE RESEARCH</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>0004-282X</t>
+          <t>0278-4807</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ARQUIVOS DE NEURO-PSIQUIATRIA (IMPRESSO)</t>
+          <t>REHABILITATION NURSING</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2358-8306</t>
+          <t>0891-4222</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>CADERNOS DE EDUCAÇÃO, SAÚDE E FISIOTERAPIA</t>
+          <t>RESEARCH IN DEVELOPMENTAL DISABILITIES</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>1065-6995</t>
+          <t>1465-993X</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>CELL BIOLOGY INTERNATIONAL (PRINT)</t>
+          <t>RESPIRATORY RESEARCH (ONLINE)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>1677-1028</t>
+          <t>0080-6234</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CONSCIENTIAE SAÚDE (IMPRESSO)</t>
+          <t>REVISTA DA ESCOLA DE ENFERMAGEM DA USP</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1983-9324</t>
+          <t>2177-2894</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CONSCIENTIAE SAÚDE (ONLINE)</t>
+          <t>REVISTA THEMA</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2238-913X</t>
+          <t>1424-8220</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>DEMETRA: ALIMENTAÇÃO, NUTRIÇÃO &amp; SAÚDE</t>
+          <t>SENSORS (BASEL)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>1518-9740</t>
+          <t>0941-4355</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>FISIOTERAPIA BRASIL</t>
+          <t>SUPPORTIVE CARE IN CANCER</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2526-9747</t>
+          <t>1064-8011</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>FISIOTERAPIA BRASIL (ONLINE)</t>
+          <t>THE JOURNAL OF STRENGTH AND CONDITIONING RESEARCH</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2526-1010</t>
+          <t>1529-9430</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>JOURNAL HEALTH NPEPS</t>
+          <t>THE SPINE JOURNAL</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1097-9751</t>
+          <t>1178-203X</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>JOURNAL OF EXERCISE PHYSIOLOGY ONLINE</t>
+          <t>THERAPEUTICS AND CLINICAL RISK MANAGEMENT (ONLINE)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2059-9781</t>
+          <t>1541-0331</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>JOURNAL OF SYSTEMS AND INTEGRATIVE NEUROSCIENCE</t>
+          <t>WOMEN &amp; HEALTH</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>0305-7518</t>
+          <t>1720-8319</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>LEPROSY REVIEW</t>
+          <t>AGING CLINICAL AND EXPERIMENTAL RESEARCH</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2236-5435</t>
+          <t>0895-7061</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>MANUAL THERAPY, POSTUROLOGY &amp; REHABILITATION JOURNAL</t>
+          <t>AMERICAN JOURNAL OF HYPERTENSION</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2578-5478</t>
+          <t>1715-5312</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>PHOTOBIOMODULATION, PHOTOMEDICINE, AND LASER SURGERY</t>
+          <t>APPLIED PHYSIOLOGY, NUTRITION AND METABOLISM (PRINT)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>1413-3482</t>
+          <t>2049-3258</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>REVISTA BRASILEIRA DE ATIVIDADE FÍSICA E SAÚDE</t>
+          <t>ARCHIVES OF PUBLIC HEALTH</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2317-1634</t>
+          <t>2314-6133</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>REVISTA BRASILEIRA DE ATIVIDADE FÍSICA E SAÚDE</t>
+          <t>BIOMED RESEARCH INTERNATIONAL</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>0103-1716</t>
+          <t>1475-925X</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>REVISTA BRASILEIRA DE CIÊNCIA E MOVIMENTO</t>
+          <t>BIOMEDICAL ENGINEERING ONLINE (ONLINE)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>1981-4690</t>
+          <t>1471-2474</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>REVISTA BRASILEIRA DE EDUCACAO FISICA E ESPORTE</t>
+          <t>BMC MUSCULOSKELETAL DISORDERS (ONLINE)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>1981-9900</t>
+          <t>0269-9052</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>REVISTA BRASILEIRA DE PRESCRIÇÃO E FISIOLOGIA DO EXERCÍCIO</t>
+          <t>BRAIN INJURY (LONDON. PRINT)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>1415-5273</t>
+          <t>1519-6984</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>REVISTA DE NUTRICAO- BRAZILIAN JOURNAL OF NUTRITION</t>
+          <t>BRAZILIAN JOURNAL OF BIOLOGY (IMPRESSO)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>0873-2159</t>
+          <t>1678-4375</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>REVISTA PORTUGUESA DE PNEUMOLOGIA</t>
+          <t>BRAZILIAN JOURNAL OF BIOLOGY (ONLINE)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>0899-0220</t>
+          <t>1414-431X</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>SOMATOSENSORY &amp; MOTOR RESEARCH</t>
+          <t>BRAZILIAN JOURNAL OF MEDICAL AND BIOLOGICAL RESEARCH</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2177-9333</t>
+          <t>0100-879X</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ASSOBRAFIR CIÊNCIA</t>
+          <t>BRAZILIAN JOURNAL OF MEDICAL AND BIOLOGICAL RESEARCH (IMPRESSO)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>0047-2085</t>
+          <t>2049-4645</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>JORNAL BRASILEIRO DE PSIQUIATRIA (UFRJ. IMPRESSO)</t>
+          <t>BRITISH JOURNAL OF PAIN</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2317-3467</t>
+          <t>1530-7905</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>REVISTA BIOMOTRIZ</t>
+          <t>CARDIOVASCULAR TOXICOLOGY</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2175-537X</t>
+          <t>2073-4409</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>REVISTA INSPIRAR</t>
+          <t>CELLS</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2595-0886</t>
+          <t>1479-9731</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>CADERNOS DO CUIDADO</t>
+          <t>CHRONIC RESPIRATORY DISEASE (ONLINE)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2573-3400</t>
+          <t>0959-9851</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>JOURNAL OF CAFFEINE AND ADENOSINE RESEARCH</t>
+          <t>CLINICAL AUTONOMIC RESEARCH</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2616-2806</t>
+          <t>0268-0033</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>LONGHUA CHINESE MEDICINE</t>
+          <t>CLINICAL BIOMECHANICS (BRISTOL)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2574-9935</t>
+          <t>1470-2118</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>MOJ SPORTS MEDICINE</t>
+          <t>CLINICAL MEDICINE (LONDON)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2176-2465</t>
+          <t>2317-1782</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>PULMÃO RJ ATUALIZAÇÕES TEMÁTICAS</t>
+          <t>CODAS</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>0189-6016</t>
+          <t>1744-3881</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>AFRICAN JOURNAL OF TRADITIONAL, COMPLEMENTARY AND ALTERNATIVE MEDICINES</t>
+          <t>COMPLEMENTARY THERAPIES IN CLINICAL PRACTICE</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2179-6459</t>
+          <t>1541-2555</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>BOLETIM DA SOCIEDADE DE REUMATOLOGIA DO RIO DE JANEIRO</t>
+          <t>COPD (MONTICELLO. SULLIVAN COUNTY)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>0101-0522</t>
+          <t>1389-4501</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>LAES/HAES</t>
+          <t>CURRENT DRUG TARGETS (PRINT)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2516-7081</t>
+          <t>1751-8423</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>PHYSIOTHERAPY RESEARCH AND REPORTS</t>
+          <t>DEVELOPMENTAL NEUROREHABILITATION</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2448-3877</t>
+          <t>1751-8431</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>REVISTA BRASILEIRA DE ANÁLISES CLÍNICAS (ONLINE)</t>
+          <t>DEVELOPMENTAL NEUROREHABILITATION (ONLINE)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>0101-8469</t>
+          <t>2589-5370</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>REVISTA BRASILEIRA DE NEUROLOGIA</t>
+          <t>ECLINICALMEDICINE</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
+          <t>1679-4974</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>EPIDEMIOLOGIA E SERVICOS DE SAUDE</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>1365-2354</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>EUROPEAN JOURNAL OF CANCER CARE</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>0531-5565</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>EXPERIMENTAL GERONTOLOGY</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>0958-0670</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>EXPERIMENTAL PHYSIOLOGY (PRINT)</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>1747-6348</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>EXPERT REVIEW OF RESPIRATORY MEDICINE</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>1662-453X</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>FRONTIERS IN NEUROSCIENCE</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>0147-9563</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>HEART &amp; LUNG</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>1109-9666</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>HELLENIC JOURNAL OF CARDIOLOGY</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>1520-4391</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>HEMATOLOGY (PRINT)</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>0167-9457</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>HUMAN MOVEMENT SCIENCE (PRINT)</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>0360-3997</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>INFLAMMATION</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>0169-8141</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL JOURNAL OF INDUSTRIAL ERGONOMICS</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>1080-3548</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL JOURNAL OF OCCUPATIONAL SAFETY AND ERGONOMICS</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>1474-8185</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL JOURNAL OF PERFORMANCE ANALYSIS IN SPORT</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>1433-3023</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL UROGYNECOLOGY JOURNAL</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>0021-7557</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>JORNAL DE PEDIATRIA (IMPRESSO)</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>1063-8652</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>JOURNAL OF AGING AND PHYSICAL ACTIVITY</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>1065-8483</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>JOURNAL OF APPLIED BIOMECHANICS</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>1932-7501</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>JOURNAL OF CARDIOPULMONARY REHABILITATION AND PREVENTION</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>0883-9441</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>JOURNAL OF CRITICAL CARE</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>1089-313X</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>JOURNAL OF DANCE MEDICINE &amp; SCIENCE</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2047-2978</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>JOURNAL OF GLOBAL HEALTH</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>1899-7562</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>JOURNAL OF HUMAN KINETICS</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2228-6721</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>JOURNAL OF LASERS IN MEDICAL SCIENCES</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>1178-2390</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>JOURNAL OF MULTIDISCIPLINARY HEALTHCARE</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>1573-6571</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>JOURNAL OF RELIGION AND HEALTH (ONLINE)</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>0148-639X</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>MUSCLE &amp; NERVE (PRINT)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>0364-3190</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>NEUROCHEMICAL RESEARCH</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>0987-7053</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>NEUROPHYSIOLOGIE CLINIQUE (PARIS)</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>1053-8135</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>NEUROREHABILITATION (READING, MA)</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>1758-1869</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>PAIN MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>1466-853X</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>PHYSICAL THERAPY IN SPORT</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>1934-1482</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>PM &amp; R (PHILADELPHIA, 2009): THE JOURNAL OF INJURY, FUNCTION AND REHABILITATION</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2090-2867</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>REHABILITATION RESEARCH AND PRACTICE</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>0270-1367</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>RESEARCH QUARTERLY FOR EXERCISE AND SPORT</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>0020-1324</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>RESPIRATORY CARE</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>1980-5497</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE EPIDEMIOLOGIA</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>1981-2256</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE GERIATRIA E GERONTOLOGIA</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>1809-9823</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE GERIATRIA E GERONTOLOGIA (UNATI. IMPRESSO)</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2238-121X</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>REVISTA COMUNICAÇÕES</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>1806-0013</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>REVISTA DOR</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>1476-3141</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>SPORTS BIOMECHANICS</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>0104-0707</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>TEXTO &amp; CONTEXTO ENFERMAGEM</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>1524-6175</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>THE JOURNAL OF CLINICAL HYPERTENSION (GREENWICH, CONN.)</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>0102-6720</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>ABCD. ARQUIVOS BRASILEIROS DE CIRURGIA DIGESTIVA</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>1381-3455</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>ARCHIVES OF PHYSIOLOGY AND BIOCHEMISTRY</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>0160-564X</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>ARTIFICIAL ORGANS</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>1040-0435</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>ASSISTIVE TECHNOLOGY</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2057-1976</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>BIOMEDICAL PHYSICS &amp; ENGINEERING EXPRESS</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>1471-2261</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>BMC CARDIOVASCULAR DISORDERS (ONLINE)</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2055-7647</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>BMJ OPEN SPORT &amp; EXERCISE MEDICINE</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>0104-0014</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>BRAZILIAN JOURNAL OF ANESTHESIOLOGY</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>1099-0844</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>CELL BIOCHEMISTRY AND FUNCTION (ONLINE)</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>1980-5322</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>CLINICS</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>1807-5932</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>CLINICS (USP, IMPRESSO)</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>1355-008X</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>ENDOCRINE (BASINGSTOKE)</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>0301-2115</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>EUROPEAN JOURNAL OF OBSTETRICS, GYNECOLOGY, AND REPRODUCTIVE BIOLOGY</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>0361-073X</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>EXPERIMENTAL AGING RESEARCH</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>1664-2295</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>FRONTIERS IN NEUROLOGY</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2234-943X</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>FRONTIERS IN ONCOLOGY</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>1443-9506</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>HEART, LUNG AND CIRCULATION (PRINT)</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>0163-6383</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>INFANT BEHAVIOR &amp; DEVELOPMENT</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>0020-7292</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL JOURNAL OF GYNAECOLOGY AND OBSTETRICS</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>0165-5876</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL JOURNAL OF PEDIATRIC OTORHINOLARYNGOLOGY (PRINT)</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2005-2901</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>JOURNAL OF ACUPUNCTURE AND MERIDIAN STUDIES</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>1053-8127</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>JOURNAL OF BACK AND MUSCULOSKELETAL REHABILITATION</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>1476-4172</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>JOURNAL OF COSMETIC AND LASER THERAPY (PRINT)</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>0169-3816</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>JOURNAL OF CROSS-CULTURAL GERONTOLOGY</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2251-6581</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>JOURNAL OF DIABETES &amp; METABOLIC DISORDERS</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>1050-6411</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>JOURNAL OF ELECTROMYOGRAPHY AND KINESIOLOGY</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>1728-869X</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>JOURNAL OF EXERCISE SCIENCE AND FITNESS</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2175-4411</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>JOURNAL OF HEALTH INFORMATICS</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>1988-5202</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>JOURNAL OF HUMAN SPORT AND EXERCISE</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>0022-2895</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>JOURNAL OF MOTOR BEHAVIOR</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2247-806X</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>JOURNAL OF PHYSICAL EDUCATION AND SPORT</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>1056-6716</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>JOURNAL OF SPORT REHABILITATION</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>0022-4707</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>JOURNAL OF SPORTS MEDICINE AND PHYSICAL FITNESS (TESTO STAMPATO)</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>1331-1441</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>KINESIOLOGY (ZAGREB)</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>1054-660X</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>LASER PHYSICS</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>0375-9393</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>MINERVA ANESTESIOLOGICA (TESTO STAMPATO)</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2176-1019</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>MUDANÇAS-PSICOLOGIA DA SAÚDE</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2211-0348</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>MULTIPLE SCLEROSIS AND RELATED DISORDERS</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>0898-5669</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>PEDIATRIC PHYSICAL THERAPY</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>1474-905X</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>PHOTOCHEMICAL &amp; PHOTOBIOLOGICAL SCIENCES (PRINT)</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>1358-2267</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>PHYSIOTHERAPY RESEARCH INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>1471-2865</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>PHYSIOTHERAPY RESEARCH INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>0959-3985</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>PHYSIOTHERAPY THEORY AND PRACTICE</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>1532-5040</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>PHYSIOTHERAPY THEORY AND PRACTICE</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>1569-9048</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>RESPIRATORY PHYSIOLOGY &amp; NEUROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>0034-7094</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE ANESTESIOLOGIA (IMPRESSO)</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>0103-1104</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>SAUDE EM DEBATE</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>1524-1602</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>STRENGTH AND CONDITIONING JOURNAL</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2046-4053</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>SYSTEMATIC REVIEWS</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>1827-1928</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>THE JOURNAL OF SPORTS MEDICINE AND PHYSICAL FITNESS</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>1082-0744</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>TOPICS IN SPINAL CORD INJURY REHABILITATION</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>1051-9815</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>WORK (READING, MA)</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2318-4965</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>ABCS HEALTH SCIENCES</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2357-8114</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>ABCS HEALTH SCIENCES</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>1082-720X</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>ANNALS OF NONINVASIVE ELECTROCARDIOLOGY</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>1933-8244</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>ARCHIVES OF ENVIRONMENTAL &amp; OCCUPATIONAL HEALTH</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>0102-0935</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>ARQUIVO BRASILEIRO DE MEDICINA VETERINÁRIA E ZOOTECNIA</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>1807-1325</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>ARQUIVOS DE CIÊNCIAS DA SAÚDE (FAMERP)</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2008-000X</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>ASIAN JOURNAL OF SPORTS MEDICINE</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2317-6431</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>AUDIOLOGY - COMMUNICATION RESEARCH (ACR)</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>0953-4180</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>BEHAVIOURAL NEUROLOGY</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2080-2234</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>BIOMEDICAL HUMAN KINETICS</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2520-1026</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>BMC RHEUMATOLOGY</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2595-3192</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>BRJP -  BRAZILIAN JOURNAL OF PAIN</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2595-0118</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>BRJP (IMPRESSO)</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2526-8910</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>CADERNOS BRASILEIROS DE TERAPIA OCUPACIONAL</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2238-2860</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>CADERNOS DE TERAPIA OCUPACIONAL DA UFSCAR (ONLINE)</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2358-291X</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>CADERNOS SAÚDE COLETIVA</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>1414-462X</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>CADERNOS SAÚDE COLETIVA (UFRJ)</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>1205-9838</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>CANADIAN JOURNAL OF RESPIRATORY THERAPY</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2595-4881</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>CENAS EDUCACIONAIS</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>1984-7513</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>CIÊNCIA, CUIDADO E SAÚDE (ONLINE)</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2176-9133</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>COGITARE ENFERMAGEM</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>0886-9634</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>CRANIO. JOURNAL OF CRANIOMANDIBULAR PRACTICE</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>1578-8423</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>CUADERNOS DE PSICOLOGIA DEL DEPORTE</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>8755-1039</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC CYTOPATHOLOGY (PRINT)</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2167-9177</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>EUROPEAN JOURNAL OF PHYSIOTHERAPY (ONLINE)</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2037-7460</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>EUROPEAN JOURNAL OF TRANSLATIONAL MYOLOGY</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>0014-4819</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>EXPERIMENTAL BRAIN RESEARCH</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>0190-2148</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>EXPERIMENTAL LUNG RESEARCH</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>1550-8307</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>EXPLORE (NEW YORK, N.Y.)</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>1807-0221</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>EXTENSIO: REVISTA ELETRÔNICA DE EXTENSÃO</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2316-9117</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>FISIOTERAPIA E PESQUISA</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>0103-5150</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>FISIOTERAPIA EM MOVIMENTO</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>1980-5918</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>FISIOTERAPIA EM MOVIMENTO</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>1479-6708</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>FUTURE NEUROLOGY</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>1827-1812</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>GAZZETTA MEDICA ITALIANA ARCHIVIO PER LE SCIENZE MEDICHE</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2447-2115</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>GERIATRICS, GERONTOLOGY AND AGING</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2318-1540</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>HORIZONTES - REVISTA DE EDUCAÇÃO</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>1732-3991</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>HUMAN MOVEMENT</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>1899-1955</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>HUMAN MOVEMENT (ONLINE)</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>0020-7454</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL JOURNAL OF NEUROSCIENCE</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>1741-1645</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL JOURNAL OF THERAPY AND REHABILITATION</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>1759-779X</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL JOURNAL OF THERAPY AND REHABILITATION</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>0959-3020</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>ISOKINETICS AND EXERCISE SCIENCE</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>1806-3713</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>JORNAL BRASILEIRO DE PNEUMOLOGIA (IMPRESSO)</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>1806-3756</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>JORNAL BRASILEIRO DE PNEUMOLOGIA (ONLINE)</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>1473-2130</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>JOURNAL OF COSMETIC DERMATOLOGY (PRINT)</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2288-1778</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>JOURNAL OF EXERCISE REHABILITATION</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2411-5142</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>JOURNAL OF FUNCTIONAL MORPHOLOGY AND KINESIOLOGY</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>1108-7161</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>JOURNAL OF MUSCULOSKELETAL AND NEURONAL INTERACTIONS</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>0218-9577</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>JOURNAL OF MUSCULOSKELETAL RESEARCH</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2448-2455</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>JOURNAL OF PHYSICAL EDUCATION (ONLINE)</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>1514-3465</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>LECTURAS: EDUCACIÓN FÍSICA Y DEPORTES</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>1646-107X</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>MOTRICIDADE (SANTA MARIA DA FEIRA)</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>1980-6574</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>MOTRIZ : REVISTA DE EDUCAÇÃO FÍSICA (ONLINE)</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>1982-8918</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>MOVIMENTO (UFRGS. ONLINE)</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>1320-5358</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>NEPHROLOGY (CARLTON. PRINT)</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>0304-3940</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>NEUROSCIENCE LETTERS (PRINT)</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>0031-5125</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>PERCEPTUAL AND MOTOR SKILLS</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>0862-8408</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGICAL RESEARCH (PRINT)</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2083-8204</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>PHYSIOTHERAPY (WARSAW)</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>1888-7546</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>REVISTA ANDALUZA DE MEDICINA DEL DEPORTE</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>0101-3289</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE CIÊNCIAS DO ESPORTE</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2179-3255</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE CIÊNCIAS DO ESPORTE (ONLINE)</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>1415-8426</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE CINEANTROPOMETRIA &amp; DESEMPENHO HUMANO (IMPRESSO)</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>1980-0037</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE CINEANTROPOMETRIA E DESEMPENHO HUMANO</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>1517-8692</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE MEDICINA DO ESPORTE (IMPRESSO)</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>1806-9940</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE MEDICINA DO ESPORTE (ONLINE)</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>1981-9919</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE OBESIDADE, NUTRIÇÃO E EMAGRECIMENTO</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>1809-452X</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE PSIQUIATRIA</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>1982-4335</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE TERAPIA INTENSIVA</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>0103-507X</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE TERAPIA INTENSIVA (IMPRESSO)</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>1982-0216</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>REVISTA CEFAC (ONLINE)</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2448-0959</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>REVISTA CIENTÍFICA MULTIDISCIPLINAR NÚCLEO DO CONHECIMENTO</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2359-2974</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>REVISTA DA ASSOCIAÇÃO BRASILEIRA DE ATIVIDADE MOTORA ADAPTADA</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>0104-4230</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>REVISTA DA ASSOCIAÇÃO MÉDICA BRASILEIRA</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>1806-9282</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>REVISTA DA ASSOCIAÇÃO MÉDICA BRASILEIRA</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>1809-8363</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>REVISTA DE APS (ONLINE)</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2178-2091</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>REVISTA ELETRÔNICA ACERVO SAÚDE</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>1809-2950</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>REVISTA FISIOTERAPIA E PESQUISA</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2237-0587</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>REVISTA FORMAÇÃO@DOCENTE</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2176-901X</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>REVISTA KAIRÓS (ONLINE)</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>1645-0523</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>REVISTA PORTUGUESA DE CIÊNCIAS DO DESPORTO</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2236-5834</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>REVISTA SAÚDE (SANTA MARIA)</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2316-347X</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>SAUDE E MEIO AMBIENTE - REVISTA INTERDISCIPLINAR</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>1980-6108</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>SCIENTIA MEDICA (PORTO ALEGRE. ONLINE)</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>1825-1234</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>SPORT SCIENCES FOR HEALTH</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>1824-7490</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>SPORT SCIENCES FOR HEALTH (TESTO STAMPATO)</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>0391-3988</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>THE INTERNATIONAL JOURNAL OF ARTIFICIAL ORGANS (TESTO STAMPATO)</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>0277-0903</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>THE JOURNAL OF ASTHMA</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>1066-9817</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>THE JOURNAL OF MANUAL &amp; MANIPULATIVE THERAPY</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>1079-0268</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>THE JOURNAL OF SPINAL CORD MEDICINE</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>0882-7524</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>TOPICS IN GERIATRIC REHABILITATION</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>1745-6215</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>TRIALS (LONDON)</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>0104-7795</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>ACTA FISIATRICA</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2317-0190</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>ACTA FISIÁTRICA</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>1679-9291</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>ACTA SCIENTIARUM. HEALTH SCIENCES (IMPRESSO)</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>1807-8648</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>ACTA SCIENTIARUM. HEALTH SCIENCES (ONLINE)</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>2177-5281</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>ADOLESCÊNCIA &amp; SAÚDE</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>2164-6627</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>ADVANCED SCIENCE, ENGINEERING AND MEDICINE</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>2523-3106</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>ADVANCES IN RHEUMATOLOGY</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>2359-3997</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>ARCHIVES OF ENDOCRINOLOGY AND METABOLISM</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>2359-4292</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>ARCHIVES OF ENDOCRINOLOGY AND METABOLISM</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>0212-8799</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>ARCHIVOS DE MEDICINA DEL DEPORTE</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>1678-4170</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>ARQUIVOS BRASILEIROS DE CARDIOLOGIA</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>0066-782X</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>ARQUIVOS BRASILEIROS DE CARDIOLOGIA (IMPRESSO)</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>2317-7136</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>ARQUIVOS DE CIÊNCIAS DO ESPORTE</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>1678-4219</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>ARQUIVOS DE GASTROENTEROLOGIA (ONLINE)</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>1678-4227</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>ARQUIVOS DE NEURO-PSIQUIATRIA</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>0004-282X</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>ARQUIVOS DE NEURO-PSIQUIATRIA (IMPRESSO)</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>1981-3163</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>BIOSCIENCE JOURNAL (ONLINE)</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>2358-8306</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>CADERNOS DE EDUCAÇÃO, SAÚDE E FISIOTERAPIA</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>1065-6995</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>CELL BIOLOGY INTERNATIONAL (PRINT)</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>2542-3983</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>CLINICAL TRIALS IN DEGENERATIVE DISEASES</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>1981-4313</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>COLEÇÃO PESQUISA EM EDUCAÇÃO FÍSICA</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>1677-1028</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>CONSCIENTIAE SAÚDE (IMPRESSO)</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>1983-9324</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>CONSCIENTIAE SAÚDE (ONLINE)</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>1517-6096</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>CORPOCONSCIÊNCIA</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>2238-913X</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>DEMETRA: ALIMENTAÇÃO, NUTRIÇÃO &amp; SAÚDE</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>2176-2724</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>DISTÚRBIOS DA COMUNICAÇÃO</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>1514-0105</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>EDUCACIÓN FÍSICA Y CIENCIA</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>0211-5638</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>FISIOTERAPIA (MADRID. ED. IMPRESA)</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>1518-9740</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>FISIOTERAPIA BRASIL</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2526-9747</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>FISIOTERAPIA BRASIL (ONLINE)</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>0016-867X</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>GERIATRICS</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>1939-795X</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL JOURNAL OF EXERCISE SCIENCE</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2159-2896</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL JOURNAL OF SPORTS PHYSICAL THERAPY</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2169-8791</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL JOURNAL OF SPORTS SCIENCE</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2526-1010</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>JOURNAL HEALTH NPEPS</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>1097-9751</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>JOURNAL OF EXERCISE PHYSIOLOGY ONLINE</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>0104-1282</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>JOURNAL OF HUMAN GROWTH AND DEVELOPMENT</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>2175-3598</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>JOURNAL OF HUMAN GROWTH AND DEVELOPMENT</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>2373-2164</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>JOURNAL OF PHYSICAL EDUCATION AND SPORTS MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>2356-7651</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>JOURNAL OF SPORTS MEDICINE</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>2059-9781</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>JOURNAL OF SYSTEMS AND INTEGRATIVE NEUROSCIENCE</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>0305-7518</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>LEPROSY REVIEW</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>1981-3171</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>LICERE (CENTRO DE ESTUDOS DE LAZER E RECREAÇÃO. ONLINE)</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>2236-5435</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>MANUAL THERAPY, POSTUROLOGY &amp; REHABILITATION JOURNAL</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>2175-8042</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>MOTRIVIVÊNCIA (FLORIANÓPOLIS)</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>2314-4262</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>NEUROSCIENCE JOURNAL (PRINT)</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>0212-1611</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>NUTRICION HOSPITALARIA</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>2451-8476</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>OBESITY MEDICINE</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>1539-3399</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>ONLINE JOURNAL OF RURAL NURSING AND HEALTH CARE</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>1980-6183</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>PENSAR A PRÁTICA (ONLINE)</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>2578-5478</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>PHOTOBIOMODULATION, PHOTOMEDICINE, AND LASER SURGERY</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>1413-3482</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE ATIVIDADE FÍSICA E SAÚDE</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>2317-1634</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE ATIVIDADE FÍSICA E SAÚDE</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>0103-1716</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE CIÊNCIA E MOVIMENTO</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>1981-4690</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE EDUCACAO FISICA E ESPORTE</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>1981-9900</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE PRESCRIÇÃO E FISIOLOGIA DO EXERCÍCIO</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>2255-5021</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE REUMATOLOGIA</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>0482-5004</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE REUMATOLOGIA (IMPRESSO)</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>2178-7514</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>REVISTA CPAQV</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>2238-0000</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>REVISTA DA ALESDE</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>2359-4330</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>REVISTA DE ATENÇÃO À SAÚDE</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>0719-4013</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>REVISTA DE CIENCIAS DE LA ACTIVIDAD FÍSICA</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>1415-5273</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>REVISTA DE NUTRICAO- BRAZILIAN JOURNAL OF NUTRITION</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>2238-6149</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>REVISTA DE TERAPIA OCUPACIONAL DA UNIVERSIDADE DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>2526-3544</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>REVISTA INTERINSTITUCIONAL BRASILEIRA DE TERAPIA OCUPACIONAL</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>0873-2159</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>REVISTA PORTUGUESA DE PNEUMOLOGIA</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>1809-3957</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>REVISTA SODEBRAS</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>2317-8582</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>SAÚDE E DESENVOLVIMENTO HUMANO</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>2238-1244</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>SAÚDE EM REVISTA</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>1516-7356</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>SAÚDE EM REVISTA (UNIMEP)</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>0899-0220</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>SOMATOSENSORY &amp; MOTOR RESEARCH</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>2410-8219</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>SOUTH AFRICAN JOURNAL OF PHYSIOTHERAPY</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>2197-5248</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>SOUTH EASTERN EUROPEAN JOURNAL OF PUBLIC HEALTH</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>2075-4663</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>SPORTS</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>2317-3009</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>ARCHIVES OF HEALTH INVESTIGATION</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>1809-9556</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>ARQUIVOS EM MOVIMENTO</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>2177-9333</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>ASSOBRAFIR CIÊNCIA</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>1679-8074</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>BIOMOTRIZ (UNICRUZ)</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>2176-9141</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>BOLETIM INFORMATIVO UNIMOTRISAÚDE EM SOCIOGERONTOLOGIA</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>2595-6825</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>BRAZILIAN JOURNAL OF HEALTH REVIEW</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>1982-8047</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>HU REVISTA</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>0047-2085</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>JORNAL BRASILEIRO DE PSIQUIATRIA (UFRJ. IMPRESSO)</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>2447-8938</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>JOURNAL OF HEALTH SCIENCES (UNOPAR)</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>0102-8308</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>KINESIS (SANTA MARIA)</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>1984-4298</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>MOVIMENTA</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>2357-9641</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>PAN AMERICAN JOURNAL OF AGING RESEARCH</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>2317-3467</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>REVISTA BIOMOTRIZ</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>2176-9745</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE CANCEROLOGIA</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>2358-1239</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE ESTUDOS DO LAZER</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>1677-8510</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE FISIOLOGIA DO EXERCÍCIO</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>1984-4956</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE FUTSAL E FUTEBOL</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>1679-4435</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE MEDICINA DO TRABALHO</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>2359-0327</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>REVISTA CIF BRASIL</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>0104-1894</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>REVISTA DO INSTITUTO DE CIENCIAS DA SAUDE (UNIP)</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2175-537X</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>REVISTA INSPIRAR</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2412-2688</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>THE FIEP BULLETIN</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>0041-1345</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>TRANSPLANTATION PROCEEDINGS</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2595-0096</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>ARQUIVOS BRASILEIROS DE EDUCAÇÃO FÍSICA</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2595-0886</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>CADERNOS DO CUIDADO</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>1983-3237</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>CORPO E MOVIMENTO EDUCAÇÃO FÍSICA</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2514-7153</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL JOURNAL OF FIRST AID EDUCATION</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2573-3400</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>JOURNAL OF CAFFEINE AND ADENOSINE RESEARCH</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2177-0298</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>JOURNAL OF MORPHOLOGICAL SCIENCES</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2616-2806</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>LONGHUA CHINESE MEDICINE</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2574-9935</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>MOJ SPORTS MEDICINE</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2359-6902</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>MULTI-SCIENCE JOURNAL</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>1807-1058</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>NEUROCIÊNCIAS (RIO DE JANEIRO)</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>0030-5944</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>ORTODONTIA</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2176-2465</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>PULMÃO RJ ATUALIZAÇÕES TEMÁTICAS</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>1980-0312</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>REFELD. REVISTA BRASILEIRA DE EDUCAÇÃO FÍSICA, ESPORTE, LAZER E DANÇA</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2177-1235</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE CIRURGIA PLÁSTICA (ONLINE)</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>1981-9145</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE PSICOLOGIA DO ESPORTE</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2238-4111</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>REVISTA ELETRÔNICA SAÚDE E CIÊNCIA</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2238-8699</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>REVISTA MOVIMENTO (ECA-USP)</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2238-2704</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>REVISTA PESQUISA EM FISIOTERAPIA</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>1981-4119</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>REVISTA SALUSVITA (ONLINE)</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2595-1459</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>SCIENTIFIC JOURNAL OF THE FOOT &amp; ANKLE</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2367-1890</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>SPORTS MEDICINE INERNATIONAL OPEN</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2164-0386</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>ADVANCES IN PHYSICAL EDUCATION</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>0189-6016</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>AFRICAN JOURNAL OF TRADITIONAL, COMPLEMENTARY AND ALTERNATIVE MEDICINES</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2330-8559</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>AMERICAN JOURNAL OF SPORTS SCIENCE</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2179-6459</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>BOLETIM DA SOCIEDADE DE REUMATOLOGIA DO RIO DE JANEIRO</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2525-8761</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>BRAZILIAN JOURNAL OF DEVELOPMENT</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2357-9730</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>CLINICAL AND BIOMEDICAL RESEARCH</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>1465-1858</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>COCHRANE LIBRARY (ONLINE)</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>0101-7772</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>GED. GASTROENTEROLOGIA E ENDOSCOPIA DIGESTIVA</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2411-2933</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL JOURNAL FOR INNOVATION EDUCATION AND RESEARCH</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>1929-0748</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>JMIR RESEARCH PROTOCOLS</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>0101-2800</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>JORNAL BRASILEIRO DE NEFROLOGIA</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>0101-0522</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>LAES/HAES</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2516-7081</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>PHYSIOTHERAPY RESEARCH AND REPORTS</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2448-0533</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>PNEUMOLOGIA PAULISTA</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2525-3409</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>RESEARCH, SOCIETY AND DEVELOPMENT</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2448-3877</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE ANÁLISES CLÍNICAS (ONLINE)</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>0101-8469</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE NEUROLOGIA</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2447-2573</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE NEUROLOGIA</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>0103-8559</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>REVISTA DA SOCIEDADE DE CARDIOLOGIA DO ESTADO DE SAO PAULO</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2177-3564</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>REVISTA DO DERC</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>1840-3662</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>SPORT SCIENCE (TRAVNIK. PRINT)</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2595-0150</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>EXTENSÃO E SOCIEDADE</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2446-9467</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>REBESCOLAR</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
           <t>1981-1896</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B528" t="inlineStr">
         <is>
           <t>REVISTA AUGUSTUS (UNISUAM. ONLINE)</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2178-6054</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>REVISTA EXTENSÃO E SOCIEDADE</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>1517-2570</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>UNOPAR CIENTÍFICA. CIÊNCIAS BIOLÓGICAS E DA SAÚDE</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
         <is>
           <t>NP</t>
         </is>
